--- a/register_printer/excels/top.xlsx
+++ b/register_printer/excels/top.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\RegisterPrinter\register_printer\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\register_print\workspace\RegisterPrinter\register_printer\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A1543-4E6B-4BAF-AEB5-97E98E023003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1109722F-8573-4EEC-91AE-E1F7363E15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="48810" windowHeight="18810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,8 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
